--- a/Design/normilization.xlsx
+++ b/Design/normilization.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
   <si>
     <t>user ID</t>
   </si>
@@ -87,36 +85,52 @@
     <t>location</t>
   </si>
   <si>
-    <t>stock type</t>
-  </si>
-  <si>
-    <t>real ale</t>
-  </si>
-  <si>
-    <t>larger</t>
-  </si>
-  <si>
-    <t>spirits</t>
-  </si>
-  <si>
-    <t>wines</t>
-  </si>
-  <si>
-    <t>cider</t>
-  </si>
-  <si>
-    <t>snacks</t>
-  </si>
-  <si>
     <t>1NF</t>
+  </si>
+  <si>
+    <t>unrepeated data</t>
+  </si>
+  <si>
+    <t>repeated data</t>
+  </si>
+  <si>
+    <t>alcohol %</t>
+  </si>
+  <si>
+    <t>transaction no.</t>
+  </si>
+  <si>
+    <t>alchohol %</t>
+  </si>
+  <si>
+    <t>2NF</t>
+  </si>
+  <si>
+    <t>permissiions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -144,8 +158,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,44 +464,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -494,6 +523,9 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -502,6 +534,9 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -510,6 +545,9 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -518,6 +556,9 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -526,6 +567,9 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -534,6 +578,9 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -542,6 +589,9 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -550,6 +600,9 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -558,168 +611,174 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Design/normilization.xlsx
+++ b/Design/normilization.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="40">
   <si>
     <t>user ID</t>
   </si>
@@ -37,9 +37,6 @@
     <t>shelf life</t>
   </si>
   <si>
-    <t xml:space="preserve">stock name </t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>user last name</t>
   </si>
   <si>
-    <t>time stamp</t>
-  </si>
-  <si>
     <t>supplier name</t>
   </si>
   <si>
@@ -122,6 +116,24 @@
   </si>
   <si>
     <t>productID</t>
+  </si>
+  <si>
+    <t>order date time</t>
+  </si>
+  <si>
+    <t>dliveryID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product name </t>
+  </si>
+  <si>
+    <t>supplierID</t>
+  </si>
+  <si>
+    <t>userID</t>
+  </si>
+  <si>
+    <t>porductID</t>
   </si>
 </sst>
 </file>
@@ -479,189 +491,502 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>22</v>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Design/normilization.xlsx
+++ b/Design/normilization.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
   <si>
     <t>user ID</t>
   </si>
@@ -134,13 +134,31 @@
   </si>
   <si>
     <t>porductID</t>
+  </si>
+  <si>
+    <t>suppliername</t>
+  </si>
+  <si>
+    <t>suplier name</t>
+  </si>
+  <si>
+    <t>stock checkID</t>
+  </si>
+  <si>
+    <t>stock check date</t>
+  </si>
+  <si>
+    <t>stock found</t>
+  </si>
+  <si>
+    <t>stock left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +176,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -185,11 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,9 +567,6 @@
       <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -557,9 +581,6 @@
       <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -574,9 +595,6 @@
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -591,9 +609,6 @@
       <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="L6" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -608,9 +623,6 @@
       <c r="I7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -625,9 +637,6 @@
       <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="L8" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -642,9 +651,6 @@
       <c r="I9" t="s">
         <v>27</v>
       </c>
-      <c r="L9" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -659,9 +665,6 @@
       <c r="I10" t="s">
         <v>26</v>
       </c>
-      <c r="L10" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -676,9 +679,6 @@
       <c r="I11" t="s">
         <v>25</v>
       </c>
-      <c r="L11" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -693,9 +693,6 @@
       <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
@@ -704,9 +701,8 @@
       <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="L13" t="s">
-        <v>34</v>
-      </c>
+      <c r="I13" s="4"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
@@ -716,10 +712,7 @@
         <v>22</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -732,8 +725,8 @@
       <c r="F15" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>38</v>
+      <c r="I15" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -741,10 +734,13 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -752,13 +748,13 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -766,13 +762,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -780,13 +776,10 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -794,13 +787,10 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -808,24 +798,24 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -833,13 +823,13 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -847,13 +837,13 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -861,42 +851,55 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1"/>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>33</v>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>38</v>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -904,90 +907,201 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>39</v>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" t="s">
-        <v>31</v>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
       <c r="F35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
       <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
         <v>7</v>
       </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/normilization.xlsx
+++ b/Design/normilization.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
   <si>
     <t>user ID</t>
   </si>
@@ -133,9 +133,6 @@
     <t>userID</t>
   </si>
   <si>
-    <t>porductID</t>
-  </si>
-  <si>
     <t>suppliername</t>
   </si>
   <si>
@@ -152,22 +149,107 @@
   </si>
   <si>
     <t>stock left</t>
+  </si>
+  <si>
+    <t>user_L_name</t>
+  </si>
+  <si>
+    <t>user_F_name</t>
+  </si>
+  <si>
+    <t>user_phone_no.</t>
+  </si>
+  <si>
+    <t>user_email</t>
+  </si>
+  <si>
+    <t>user_postcode</t>
+  </si>
+  <si>
+    <t>user_city</t>
+  </si>
+  <si>
+    <t>user_street</t>
+  </si>
+  <si>
+    <t>user_house_no.</t>
+  </si>
+  <si>
+    <t>retail_price</t>
+  </si>
+  <si>
+    <t>retail_unit</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>alcohol%</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>locationID</t>
+  </si>
+  <si>
+    <t>location_name</t>
+  </si>
+  <si>
+    <t>brandID</t>
+  </si>
+  <si>
+    <t>brand_name</t>
+  </si>
+  <si>
+    <t>product_typeID</t>
+  </si>
+  <si>
+    <t>product_type_name</t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t>supplier_name</t>
+  </si>
+  <si>
+    <t>puchase_cost</t>
+  </si>
+  <si>
+    <t>puchase_unit</t>
+  </si>
+  <si>
+    <t>shelf_life</t>
+  </si>
+  <si>
+    <t>quantity_of_stock_displayed</t>
+  </si>
+  <si>
+    <t>display_quantity</t>
+  </si>
+  <si>
+    <t>transaction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -190,13 +272,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -208,17 +314,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,590 +639,1703 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J1" s="3"/>
+      <c r="M1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="J2" s="3"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="J3" s="3"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J4" s="3"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="J5" s="3"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I6" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="J6" s="3"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I7" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="J7" s="3"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I8" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="J8" s="3"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I9" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="J9" s="3"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="J10" s="3"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I11" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="J11" s="3"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I12" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="J12" s="3"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="J14" s="3"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F15" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="J15" s="3"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="T36" s="6"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T37" s="6"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="T38" s="6"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="J40" s="3"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="T40" s="6"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="J41" s="3"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T41" s="6"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="T42" s="6"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="T43" s="6"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="T44" s="6"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T45" s="6"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T46" s="6"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="T47" s="6"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T49" s="6"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="J51" s="3"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>3</v>
-      </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" t="s">
-        <v>36</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I48" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I50" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I51" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I53" s="4"/>
+      <c r="J52" s="3"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I53" s="2"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+    </row>
+    <row r="65" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+    </row>
+    <row r="66" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+    </row>
+    <row r="67" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+    </row>
+    <row r="68" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+    </row>
+    <row r="69" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+    </row>
+    <row r="70" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+    </row>
+    <row r="71" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+    </row>
+    <row r="72" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+    </row>
+    <row r="73" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+    </row>
+    <row r="74" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+    </row>
+    <row r="75" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+    </row>
+    <row r="76" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+    </row>
+    <row r="77" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/normilization.xlsx
+++ b/Design/normilization.xlsx
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="I48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
